--- a/medicine/Enfance/Giova_Selly/Giova_Selly.xlsx
+++ b/medicine/Enfance/Giova_Selly/Giova_Selly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Giova Selly, nom de plume de Giova Lavalle, née le 15 septembre 1934 à Lyon dans le département du Rhône, est une écrivaine française, auteure de roman policier et de littérature d'enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle fait des études universitaires et obtient une maîtrise de philosophie et d'ethnologie, puis tente une carrière au théâtre lyrique et comme chanteuse de cabaret, avant de se consacrer entièrement à l'écriture.
 Elle publie une multitude de nouvelles sentimentales dans des magazines féminins comme Bonnes Soirées, Nous Deux ou Confidences.
@@ -546,9 +560,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Romans policiers
-Piège à la une, Fleuve noir, coll. « Spécial Police » no 1229 (1976)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Romans policiers</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Piège à la une, Fleuve noir, coll. « Spécial Police » no 1229 (1976)
 Trois cloches pour un joyeux Noël, Fleuve noir, coll. « Spécial Police » no 1418 (1978)  (ISBN 2-265-00703-X)
 En noir et en couleurs, Fleuve noir, coll. « Spécial Police » no 1470 (1979)  (ISBN 2-265-00909-1)
 Le spectacle est à l'entracte, Fleuve noir, coll. « Spécial Police » no 1503 (1979)   (ISBN 2-265-01053-7)
@@ -556,12 +578,88 @@
 Attention la bête !, Fleuve noir, coll. « Spécial Police » no 1548 (1979)  (ISBN 2-265-01213-0)
 La Chasse au petit salé, Fleuve noir, coll. « Spécial Police » no 1603 (1980)  (ISBN 2-265-01452-4)
 Cache-cadavre, Fleuve noir, coll. « Spécial Police » no 1771 (1982)  (ISBN 2-265-02153-9)
-Requiem pour un tricheur, Fleuve noir, coll. « Spécial Police » no 1857 (1984)  (ISBN 2-265-02511-9)
-Série Les Dieux familiers
-Les Dieux familiers, Fleuve noir (1982)  (ISBN 2-265-01970-4)
-Le temps d'ailleurs, Fleuve noir (1983)  (ISBN 2-265-02413-9)
-Autres romans
-Chère Élise, Fleuve noir (1969)
+Requiem pour un tricheur, Fleuve noir, coll. « Spécial Police » no 1857 (1984)  (ISBN 2-265-02511-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Giova_Selly</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giova_Selly</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Les Dieux familiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Dieux familiers, Fleuve noir (1982)  (ISBN 2-265-01970-4)
+Le temps d'ailleurs, Fleuve noir (1983)  (ISBN 2-265-02413-9)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Giova_Selly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giova_Selly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Chère Élise, Fleuve noir (1969)
 Un empereur pour Élise, Fleuve noir (1970), réédition Fleuve noir (1984)  (ISBN 2-265-02845-2)
 Les Lauriers de la liberté, Fleuve noir (1975)
 L'Oriental, Fleuve noir (1977)  (ISBN 2-265-00402-2)
@@ -571,42 +669,112 @@
 Retour à Tahiti, J'ai Lu, coll. « Escale romance » no 6956 (2005)  (ISBN 2-290-34662-4)
 Rencontre au pays Kmer, J'ai Lu, coll. « Escale romance » no 7521 (2005)  (ISBN 2-290-34250-5)
 Mystères et faits divers à la cour, Hachette Loisirs (2011)  (ISBN 978-2-01-230345-4)
-Dans la tourmente, Édilivre (2013)  (ISBN 978-2-332-61703-3)
-Littérature d'enfance et de jeunesse
-Gaufres, manèges et pomme d’amour, Pocket Jeunesse (2001) coll. « Toi + moi = cœur » no 11  (ISBN 2-266-10428-4), Pocket Junior no 702
+Dans la tourmente, Édilivre (2013)  (ISBN 978-2-332-61703-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Giova_Selly</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giova_Selly</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Gaufres, manèges et pomme d’amour, Pocket Jeunesse (2001) coll. « Toi + moi = cœur » no 11  (ISBN 2-266-10428-4), Pocket Junior no 702
 L'Amour sans trucage, Pocket Jeunesse, coll. « Toi + moi = cœur » no 16 (2002)  (ISBN 2-266-11519-7), Pocket Junior no 780
 Welcome l'amour, Pocket Jeunesse, coll. « Toi + moi = cœur » no 24 (2003)  (ISBN 2-266-12096-4), Pocket Junior no 838
-Confidences d'un été, Pocket Jeunesse, coll. « Toi + moi = cœur » no 33 52004°  (ISBN 2-266-12872-8), Pocket Junior no 1018
-Autres ouvrages
-Prostitution, portes ouvertes,  le Carrousel-Fleuve noir (1986) coécrit avec Claude Godfryd  (ISBN 2-265-03221-2)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+Confidences d'un été, Pocket Jeunesse, coll. « Toi + moi = cœur » no 33 52004°  (ISBN 2-266-12872-8), Pocket Junior no 1018</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Giova_Selly</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Giova_Selly</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres ouvrages</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Prostitution, portes ouvertes,  le Carrousel-Fleuve noir (1986) coécrit avec Claude Godfryd  (ISBN 2-265-03221-2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Giova_Selly</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Giova_Selly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve"> : document utilisé comme source pour la rédaction de cet article.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 749.</t>
